--- a/Deliverables/DissertationMetrics.xlsx
+++ b/Deliverables/DissertationMetrics.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\campus\home\home22\b3029153\Finch-VideoProcessingFramework\Deliverables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Finch-VideoProcessingFramework\Deliverables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="66">
   <si>
     <t>Activity Analysis Service</t>
   </si>
@@ -181,6 +181,48 @@
   </si>
   <si>
     <t>Count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 mega byte video </t>
+  </si>
+  <si>
+    <t>Kafka store</t>
+  </si>
+  <si>
+    <t>Data Storage</t>
+  </si>
+  <si>
+    <t>4 minutes of video</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 camera </t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 hours </t>
+  </si>
+  <si>
+    <t>1440 minutes</t>
+  </si>
+  <si>
+    <t>24 hours 1 camera</t>
+  </si>
+  <si>
+    <t>Kafka Store</t>
+  </si>
+  <si>
+    <t>24 hours 6000 cameras</t>
+  </si>
+  <si>
+    <t>Messages Sent</t>
+  </si>
+  <si>
+    <t>messages</t>
+  </si>
+  <si>
+    <t>Messages Per Min</t>
+  </si>
+  <si>
+    <t>Messages Per Sec</t>
   </si>
 </sst>
 </file>
@@ -451,6 +493,67 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Pipeline</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> Processing Stage</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -516,6 +619,67 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Storage</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> required in bytes</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -704,6 +868,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-0C8D-4446-884C-19F56FE7B7C1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -719,6 +888,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-0C8D-4446-884C-19F56FE7B7C1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -734,6 +908,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-0C8D-4446-884C-19F56FE7B7C1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -749,6 +928,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-0C8D-4446-884C-19F56FE7B7C1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -764,7 +948,70 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-0C8D-4446-884C-19F56FE7B7C1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$35:$A$39</c:f>
@@ -819,8 +1066,9 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="bestFit"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -838,7 +1086,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1079,6 +1327,67 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Pipeline</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> Processing Stage</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1144,6 +1453,67 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Messages</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> Sent to Apache Kafka</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1360,6 +1730,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-E6E7-4631-AE8C-4DD5F38617F6}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1375,6 +1750,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-E6E7-4631-AE8C-4DD5F38617F6}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1390,6 +1770,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-E6E7-4631-AE8C-4DD5F38617F6}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1405,7 +1790,70 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-E6E7-4631-AE8C-4DD5F38617F6}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$D$35:$D$38</c:f>
@@ -1454,8 +1902,9 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="bestFit"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -1473,7 +1922,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -3749,16 +4198,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1695450</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1447799</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3779,16 +4228,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1562099</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>371474</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3809,16 +4258,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1704975</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1428750</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3839,16 +4288,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1485899</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>400049</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>266699</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4133,19 +4582,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:K69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5:I6"/>
+    <sheetView tabSelected="1" topLeftCell="C28" workbookViewId="0">
+      <selection activeCell="H71" sqref="H71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -4298,6 +4752,9 @@
       <c r="A14" t="s">
         <v>31</v>
       </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
       <c r="D14" t="s">
         <v>33</v>
       </c>
@@ -4439,6 +4896,12 @@
         <v>223.71799999999999</v>
       </c>
     </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <f>SUM(B27:B29)</f>
+        <v>6537</v>
+      </c>
+    </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>41</v>
@@ -4515,6 +4978,133 @@
       </c>
       <c r="B39">
         <v>19460</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <f>SUM(B36:B38)</f>
+        <v>1753.1859999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>53</v>
+      </c>
+      <c r="C63" t="s">
+        <v>54</v>
+      </c>
+      <c r="D63" t="s">
+        <v>63</v>
+      </c>
+      <c r="G63" t="s">
+        <v>60</v>
+      </c>
+      <c r="H63" t="s">
+        <v>54</v>
+      </c>
+      <c r="I63" t="s">
+        <v>62</v>
+      </c>
+      <c r="J63" t="s">
+        <v>64</v>
+      </c>
+      <c r="K63" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>52</v>
+      </c>
+      <c r="B64">
+        <v>1753.1859999999999</v>
+      </c>
+      <c r="C64">
+        <v>19460</v>
+      </c>
+      <c r="D64">
+        <v>6537</v>
+      </c>
+      <c r="F64" t="s">
+        <v>59</v>
+      </c>
+      <c r="G64">
+        <v>631146.96</v>
+      </c>
+      <c r="H64">
+        <v>7005600</v>
+      </c>
+      <c r="I64">
+        <v>2353320</v>
+      </c>
+      <c r="J64">
+        <f>(I64/1440)</f>
+        <v>1634.25</v>
+      </c>
+      <c r="K64">
+        <f>(J64/60)</f>
+        <v>27.237500000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>55</v>
+      </c>
+      <c r="F65" t="s">
+        <v>61</v>
+      </c>
+      <c r="G65">
+        <f>(G64*6000)</f>
+        <v>3786881760</v>
+      </c>
+      <c r="H65">
+        <f>(H64*6000)</f>
+        <v>42033600000</v>
+      </c>
+      <c r="I65">
+        <f>(I64*6000)</f>
+        <v>14119920000</v>
+      </c>
+      <c r="J65">
+        <f>(I65/1440)</f>
+        <v>9805500</v>
+      </c>
+      <c r="K65">
+        <f>(J65/60)</f>
+        <v>163425</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>57</v>
+      </c>
+      <c r="B67">
+        <f>(B64*360)</f>
+        <v>631146.96</v>
+      </c>
+      <c r="C67">
+        <f>(C64*360)</f>
+        <v>7005600</v>
+      </c>
+      <c r="D67">
+        <f>(D64*360)</f>
+        <v>2353320</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <f xml:space="preserve"> 1440 / 4</f>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
